--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for specific coded findings like Afib/Flutter status or mTICI score.</t>
+    <t>Profile for recording discrete, coded stroke-related findings and assessment outcomes that do not fit naturally into the vital-sign, functional-score, or timing-metric profiles. Observation.code is constrained to StrokeFindingCodesVS, and Observation.valueCodeableConcept carries the corresponding assessment result or status.
+Typical use cases include:
+- documenting AF/flutter assessment status as present/absent/unknown (valueCodeableConcept bound to an AF/flutter status ValueSet), and
+- documenting procedural outcome grades such as mTICI (valueCodeableConcept bound to MticiScoreVS).
+This profile deliberately encodes the result as a CodeableConcept to support categorical outcomes and interoperability. It does not replace Condition for asserting diagnoses; when a durable diagnosis is established (e.g., confirmed AF), represent it as a Condition and optionally link supporting Observations (screening results, monitoring runs) using hasMember, derivedFrom, or Provenance.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,11 +84,18 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for recording discrete, coded stroke-related findings and assessment outcomes that do not fit naturally into the vital-sign, functional-score, or timing-metric profiles. Observation.code is constrained to StrokeFindingCodesVS, and Observation.valueCodeableConcept carries the corresponding assessment result or status.
-Typical use cases include:
-- documenting AF/flutter assessment status as present/absent/unknown (valueCodeableConcept bound to an AF/flutter status ValueSet), and
-- documenting procedural outcome grades such as mTICI (valueCodeableConcept bound to MticiScoreVS).
-This profile deliberately encodes the result as a CodeableConcept to support categorical outcomes and interoperability. It does not replace Condition for asserting diagnoses; when a durable diagnosis is established (e.g., confirmed AF), represent it as a Condition and optionally link supporting Observations (screening results, monitoring runs) using hasMember, derivedFrom, or Provenance.</t>
+    <t>Profile for recording discrete, coded stroke-related findings and assessment outcomes that do not fit naturally into vital-sign,
+functional-score, or timing-metric profiles.
+**Primary use-cases**
+1) AF/flutter assessment status:
+   - `Observation.code` uses a disorder concept as the finding focus (AF/flutter).
+   - `Observation.valueCodeableConcept` carries status (AfibFlutterStatusVS).
+2) Procedural outcome grade (mTICI):
+   - `Observation.code` uses the mTICI assessment concept (MTICICodeVS).
+   - `Observation.valueCodeableConcept` carries the score (MticiScoreVS).
+**Important modeling note**
+- This profile does not replace Condition for diagnoses.
+  Use Condition to assert durable diagnoses and link supporting Observations via `hasMember`, `derivedFrom`, or Provenance.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
